--- a/jpcore-r4/feature/ext-terminology-check/observations-summary.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/observations-summary.xlsx
@@ -98,7 +98,7 @@
     <t>JP Core Observation Microbiology Profile</t>
   </si>
   <si>
-    <t>JP Core Simple Observation Category CodeSystem#laboratory, LOINC#18725-2</t>
+    <t>JP Core Simple Observation Category CodeSystem#laboratory, Loinc CodeSystem PART file + Core Table Japanese Modification#18725-2</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationLabResultCode_VS (required)</t>

--- a/jpcore-r4/feature/ext-terminology-check/observations-summary.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/observations-summary.xlsx
@@ -98,7 +98,7 @@
     <t>JP Core Observation Microbiology Profile</t>
   </si>
   <si>
-    <t>JP Core Simple Observation Category CodeSystem#laboratory, Loinc CodeSystem PART file + Core Table Japanese Modification#18725-2</t>
+    <t>JP Core Simple Observation Category CodeSystem#laboratory, LOINC#18725-2</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationLabResultCode_VS (required)</t>
